--- a/DOM_Banner/output/dept0713/Bekir Tanriover_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Bekir Tanriover_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Infectious Disease, College of Medicine, University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, Banner University Medical Center, Tucson, Ariz; Division of Hematology and Oncology; Family and Community Medicine; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Infectious Disease, College of Medicine, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4298007826</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The Prevention of COVID-19 in High-Risk Patients Using Tixagevimab–Cilgavimab (Evusheld): Real-World Experience at a Large Academic Center</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.019</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36181789</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.019</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367309455</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Lack of effectiveness of Bebtelovimab monoclonal antibody among high-risk patients with SARS-Cov-2 Omicron during BA.2, BA.2.12.1 and BA.5 subvariants dominated era</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>PLOS ONE</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0279326</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37115780</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0279326</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Virginia Commonwealth University, Richmond, Virginia; Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Internal Medicine, Division of Surgery, University of Tennessee Health Science Center, Memphis, Tennessee; Department of Internal Medicine, Division of Nephrology, University of Pennsylvania, Philadelphia, Pennsylvania; Department of Internal Medicine, University of Arizona, Tucson, Arizona; Virginia Commonwealth University, Richmond, Virginia; Department of Internal Medicine, Division of Infectious Diseases, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Pharmacy, University of Utah Health, Salt Lake City, Utah; Department of Internal Medicine, Division of Surgery, University of Tennessee Health Science Center, Memphis, Tennessee; Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385797901</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Comparison of Short-Term Outcomes in Kidney Transplant Recipients from SARS-CoV-2–Infected versus Noninfected Deceased Donors</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Clinical Journal of the American Society of Nephrology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.2215/cjn.0000000000000275</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37574663</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.2215/cjn.0000000000000275</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson; Division of Nephrology, Banner University Medical Center, Tucson, Arizona; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323671354</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>The Impact of Nirmatrelvir-Ritonavir in Reducing Hospitalizations Among High-Risk Patients With SARS-CoV-2 During the Omicron Predominant Era</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36898600</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson; Division of Nephrology, College of Medicine, The University of Arizona, Tucson; Division of Nephrology, College of Medicine, The University of Arizona, Tucson; Division of Nephrology, College of Medicine, The University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4382864201</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Contemporary Monoclonal Antibody Utilization in Glomerular Diseases</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Mayo Clinic Proceedings: Innovations, Quality &amp; Outcomes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.mayocpiqo.2023.04.009</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37448529</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.mayocpiqo.2023.04.009</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Division of Nephrology, United States; Department of Surgery, United States; Division of Nephrology, United States; Division of Nephrology, United States; Medical College of Wisconsin, United States; United Network for Organ Sharing, United States; United Network for Organ Sharing, United States; Division of Nephrology, United States</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4384298066</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>The Independent Effects of Kidney Length and Vascular Plaque on Ten-Year Outcomes of Extended Criteria Donor Kidney Transplants</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Transplant International</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/ti.2023.11373</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37519905</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/ti.2023.11373</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386348049</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Large-scale data extraction from the UNOS organ donor documents</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>arXiv (Cornell University)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Cornell University</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2308.15752</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2308.15752</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386396309</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Large-Scale Data Extraction from the UNOS Organ Donor Documents</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.20944/preprints202308.2121.v1</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.20944/preprints202308.2121.v1</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Division of Nephrology, Virginia Commonwealth University, 1101 East Marshall Street, PO Box 980160, Richmond, VA, 23298, USA; Division of Nephrology, College of Medicine, University of Arizona, Tucson, AZ, USA; Division of Nephrology, College of Medicine, University of Arizona, Tucson, AZ, USA; Department of Internal Medicine, Division of Nephrology &amp; Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, UT, USA; Department of Internal Medicine, Division of Nephrology, Virginia Commonwealth University, 1101 East Marshall Street, PO Box 980160, Richmond, VA, 23298, USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386574113</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Virologic Studies in COVID-Positive Donors</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Current Transplantation Reports</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40472-023-00411-7</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40472-023-00411-7</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Bekir Tanriover_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Bekir Tanriover_2023.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -621,42 +621,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Junji Yamauchi, Ambreen Azhar, Isaac E. Hall, Anshul Bhalla, Vishnu S. Potluri, Bekir Tanrıöver, Gaurav Gupta, Hannah Imlay, Crystal Truax, Vasanthi Balaraman, Divya Raghavan, Michael A. Zimmerman, Jeffrey Campsen, George Rofaiel, Talia Baker, Miklós Molnár</t>
+          <t>Mohanad Al-Obaidi, Ahmet B. Gungor, Sangeetha Murugapandian, Bijin Thajudeen, Iyad Mansour, Ryan C. Wong, Bekir Tanrıöver, Tirdad T. Zangeneh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Virginia Commonwealth University, Richmond, Virginia; Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Internal Medicine, Division of Surgery, University of Tennessee Health Science Center, Memphis, Tennessee; Department of Internal Medicine, Division of Nephrology, University of Pennsylvania, Philadelphia, Pennsylvania; Department of Internal Medicine, University of Arizona, Tucson, Arizona; Virginia Commonwealth University, Richmond, Virginia; Department of Internal Medicine, Division of Infectious Diseases, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Pharmacy, University of Utah Health, Salt Lake City, Utah; Department of Internal Medicine, Division of Surgery, University of Tennessee Health Science Center, Memphis, Tennessee; Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah</t>
+          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson; Division of Nephrology, Banner University Medical Center, Tucson, Arizona; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385797901</t>
+          <t>https://openalex.org/W4323671354</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Comparison of Short-Term Outcomes in Kidney Transplant Recipients from SARS-CoV-2–Infected versus Noninfected Deceased Donors</t>
+          <t>The Impact of Nirmatrelvir-Ritonavir in Reducing Hospitalizations Among High-Risk Patients With SARS-CoV-2 During the Omicron Predominant Era</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Clinical Journal of the American Society of Nephrology</t>
+          <t>The American Journal of Medicine</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2215/cjn.0000000000000275</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37574663</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36898600</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2215/cjn.0000000000000275</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,42 +708,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mohanad Al-Obaidi, Ahmet B. Gungor, Sangeetha Murugapandian, Bijin Thajudeen, Iyad Mansour, Ryan C. Wong, Bekir Tanrıöver, Tirdad T. Zangeneh</t>
+          <t>Junji Yamauchi, Ambreen Azhar, Isaac E. Hall, Anshul Bhalla, Vishnu S. Potluri, Bekir Tanrıöver, Gaurav Gupta, Hannah Imlay, Crystal Truax, Vasanthi Balaraman, Divya Raghavan, Michael A. Zimmerman, Jeffrey Campsen, George Rofaiel, Talia Baker, Miklós Molnár</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson; Division of Nephrology, Banner University Medical Center, Tucson, Arizona; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson</t>
+          <t>Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Virginia Commonwealth University, Richmond, Virginia; Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Internal Medicine, Division of Surgery, University of Tennessee Health Science Center, Memphis, Tennessee; Department of Internal Medicine, Division of Nephrology, University of Pennsylvania, Philadelphia, Pennsylvania; Department of Internal Medicine, University of Arizona, Tucson, Arizona; Virginia Commonwealth University, Richmond, Virginia; Department of Internal Medicine, Division of Infectious Diseases, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Pharmacy, University of Utah Health, Salt Lake City, Utah; Department of Internal Medicine, Division of Surgery, University of Tennessee Health Science Center, Memphis, Tennessee; Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Surgery, Division of Transplantation and Advanced Hepatobiliary Surgery, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah; Department of Internal Medicine, Division of Nephrology and Hypertension, University of Utah Spencer Fox Eccles School of Medicine, Salt Lake City, Utah</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323671354</t>
+          <t>https://openalex.org/W4385797901</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The Impact of Nirmatrelvir-Ritonavir in Reducing Hospitalizations Among High-Risk Patients With SARS-CoV-2 During the Omicron Predominant Era</t>
+          <t>Comparison of Short-Term Outcomes in Kidney Transplant Recipients from SARS-CoV-2–Infected versus Noninfected Deceased Donors</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The American Journal of Medicine</t>
+          <t>Clinical Journal of the American Society of Nephrology</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
+          <t>https://doi.org/10.2215/cjn.0000000000000275</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36898600</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37574663</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
+          <t>https://doi.org/10.2215/cjn.0000000000000275</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
